--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -124,8 +124,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -381,7 +382,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -426,19 +427,23 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -688,7 +693,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q28" activeCellId="0" sqref="Q28"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -814,8 +819,8 @@
       <c r="M6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
@@ -825,62 +830,62 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="15" t="s">
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="19"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24" t="s">
+      <c r="F9" s="24"/>
+      <c r="G9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
@@ -888,269 +893,269 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="9"/>
       <c r="J10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27" t="s">
+      <c r="K10" s="27"/>
+      <c r="L10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="28" t="s">
+      <c r="M10" s="23"/>
+      <c r="N10" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="17"/>
+      <c r="O10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
     </row>
     <row r="12" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="34" t="s">
+      <c r="I12" s="34"/>
+      <c r="J12" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="36" t="s">
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="37" t="s">
+      <c r="O12" s="38" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="43"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="44"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="38"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="39"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="38"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="39"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="38"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="39"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="38"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="39"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="38"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="39"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="38"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="39"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="38"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="39"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="38"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="39"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="38"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="39"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="38"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="39"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
@@ -1164,12 +1169,12 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="45" t="s">
+      <c r="L24" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="38"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="39"/>
     </row>
     <row r="25" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
@@ -1183,10 +1188,10 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="38"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="39"/>
     </row>
     <row r="26" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
@@ -1223,71 +1228,71 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="50"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="51"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51" t="s">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="53"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="52"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="53"/>
     </row>
     <row r="31" customFormat="false" ht="2.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
       <c r="G31" s="1"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="55" t="s">
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
     </row>
     <row r="32" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
@@ -1300,9 +1305,9 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -124,11 +124,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="[$-80A]@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -229,6 +230,14 @@
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -284,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -304,13 +313,6 @@
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -382,7 +384,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -415,7 +417,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -427,59 +429,51 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -487,8 +481,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -511,83 +505,87 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -595,7 +593,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -603,11 +601,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -690,15 +688,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="T16" activeCellId="0" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="3.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.88"/>
@@ -847,41 +847,41 @@
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25" t="s">
+      <c r="F9" s="22"/>
+      <c r="G9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="26"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
@@ -891,271 +891,272 @@
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28" t="s">
+      <c r="J10" s="10"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="29" t="s">
+      <c r="M10" s="21"/>
+      <c r="N10" s="27" t="s">
         <v>16</v>
       </c>
       <c r="O10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
     </row>
     <row r="12" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="35" t="s">
+      <c r="I12" s="32"/>
+      <c r="J12" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="37" t="s">
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="38" t="s">
+      <c r="O12" s="36" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="44"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="42"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="39"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="37"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="39"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="37"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="39"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="37"/>
+      <c r="T16" s="44"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="39"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="37"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="39"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="37"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="39"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="37"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="39"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="37"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="39"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="37"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="39"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="37"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="39"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="37"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
@@ -1169,12 +1170,12 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="46" t="s">
+      <c r="L24" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="39"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="37"/>
     </row>
     <row r="25" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
@@ -1188,10 +1189,10 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="39"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="37"/>
     </row>
     <row r="26" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
@@ -1228,71 +1229,71 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="51"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="50"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="52" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="53"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="52"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="53"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="52"/>
     </row>
     <row r="31" customFormat="false" ht="2.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="1"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="56" t="s">
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
     </row>
     <row r="32" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
@@ -1305,9 +1306,9 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
@@ -1334,19 +1335,24 @@
       <c r="K34" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="51">
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="J3:O3"/>
     <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="N6:O6"/>
+    <mergeCell ref="A7:E7"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="J8:K9"/>
     <mergeCell ref="L8:O8"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="L9:O9"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="D10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="K11:O11"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -384,7 +384,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -545,7 +545,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -559,6 +559,10 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -691,7 +695,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T16" activeCellId="0" sqref="T16"/>
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1032,12 +1036,12 @@
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
       <c r="J16" s="41"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
       <c r="N16" s="41"/>
       <c r="O16" s="37"/>
-      <c r="T16" s="44"/>
+      <c r="T16" s="45"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="37"/>
@@ -1118,9 +1122,9 @@
       <c r="H21" s="37"/>
       <c r="I21" s="37"/>
       <c r="J21" s="39"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
       <c r="N21" s="41"/>
       <c r="O21" s="37"/>
     </row>
@@ -1135,9 +1139,9 @@
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
       <c r="J22" s="39"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
       <c r="N22" s="41"/>
       <c r="O22" s="37"/>
     </row>
@@ -1152,9 +1156,9 @@
       <c r="H23" s="42"/>
       <c r="I23" s="42"/>
       <c r="J23" s="39"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
       <c r="N23" s="41"/>
       <c r="O23" s="37"/>
     </row>
@@ -1170,11 +1174,11 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="45" t="s">
+      <c r="L24" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
       <c r="O24" s="37"/>
     </row>
     <row r="25" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1189,9 +1193,9 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
       <c r="O25" s="37"/>
     </row>
     <row r="26" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1229,21 +1233,21 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="46"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="50"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="51"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="23" t="s">
@@ -1255,45 +1259,45 @@
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51" t="s">
+      <c r="H29" s="51"/>
+      <c r="I29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="53"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="52"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="53"/>
     </row>
     <row r="31" customFormat="false" ht="2.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
       <c r="G31" s="1"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="55" t="s">
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
     </row>
     <row r="32" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
@@ -1306,9 +1310,9 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\Servicio\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E5D1A6-8DE0-4CB5-BFA0-F864B44A8D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8742188-FF0C-4D7B-A679-576D2BBD7F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,7 +374,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -411,6 +411,109 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,126 +526,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:G29"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -900,12 +896,12 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
@@ -917,14 +913,14 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
     </row>
     <row r="4" spans="1:15" ht="5.25" customHeight="1">
       <c r="A4" s="3"/>
@@ -944,58 +940,58 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="15.75">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="30" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="31" t="s">
+      <c r="J6" s="32"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
@@ -1003,94 +999,94 @@
       <c r="M7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="28"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="35"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="36"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="30" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="35"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="38"/>
+      <c r="M10" s="16"/>
       <c r="N10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="35"/>
+      <c r="O10" s="17"/>
     </row>
     <row r="11" spans="1:15" ht="7.5" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
     </row>
     <row r="12" spans="1:15" ht="33" customHeight="1">
       <c r="A12" s="11" t="s">
@@ -1114,18 +1110,18 @@
       <c r="G12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="27"/>
+      <c r="I12" s="40"/>
       <c r="J12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
       <c r="N12" s="13" t="s">
         <v>20</v>
       </c>
@@ -1134,333 +1130,330 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="41"/>
       <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="40"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="19"/>
     </row>
     <row r="14" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="40"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="19"/>
     </row>
     <row r="15" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="40"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="19"/>
     </row>
     <row r="16" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="41"/>
       <c r="I16" s="42"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="40"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="19"/>
     </row>
     <row r="17" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="40"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="19"/>
     </row>
     <row r="18" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="40"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="19"/>
     </row>
     <row r="19" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="40"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="19"/>
     </row>
     <row r="20" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="40"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="19"/>
     </row>
     <row r="21" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="40"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="19"/>
     </row>
     <row r="22" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="40"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="19"/>
     </row>
     <row r="23" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="40"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="19"/>
     </row>
     <row r="24" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="50"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="22"/>
     </row>
     <row r="25" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="51"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="23"/>
     </row>
     <row r="26" spans="1:15" ht="14.1" customHeight="1">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="50"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="22"/>
     </row>
     <row r="27" spans="1:15" ht="6.95" customHeight="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="58" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="58"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="48"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="28"/>
     </row>
     <row r="28" spans="1:15" ht="6.95" customHeight="1">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="48"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="28"/>
     </row>
     <row r="29" spans="1:15" ht="8.1" customHeight="1">
-      <c r="A29" s="61"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="O29" s="55"/>
+      <c r="O29" s="59"/>
     </row>
     <row r="30" spans="1:15" ht="24" customHeight="1">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="O30" s="55"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="O30" s="59"/>
     </row>
     <row r="31" spans="1:15" ht="12.95" customHeight="1">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="I31" s="21" t="s">
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="I31" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1">
-      <c r="M32" s="20" t="s">
+      <c r="M32" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="3"/>
@@ -1487,27 +1480,21 @@
       <c r="K34" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="O29:O30"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L27:N28"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="K24:M24"/>
+  <mergeCells count="59">
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="K22:M22"/>
@@ -1523,31 +1510,36 @@
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="J3:O3"/>
     <mergeCell ref="E10:H10"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L27:N28"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K24:M24"/>
     <mergeCell ref="I31:K31"/>
-    <mergeCell ref="K15:M15"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="K20:M20"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="O27:O28"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="K25:M25"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="I30:K30"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.27559055118110237" top="1.0236220472440944" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\Servicio\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8742188-FF0C-4D7B-A679-576D2BBD7F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9090EFD4-9A69-47EA-8CA5-D55D79E5571F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +248,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="3">
@@ -374,7 +380,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -445,100 +451,99 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -852,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -896,12 +901,12 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
@@ -913,14 +918,14 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
     </row>
     <row r="4" spans="1:15" ht="5.25" customHeight="1">
       <c r="A4" s="3"/>
@@ -940,58 +945,58 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="15.75">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="35" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="35"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="32" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="32"/>
+      <c r="J6" s="52"/>
       <c r="K6" s="17"/>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="33"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
@@ -999,29 +1004,29 @@
       <c r="M7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="54" t="s">
+      <c r="J8" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="54"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="6" t="s">
@@ -1039,28 +1044,28 @@
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="32" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="32"/>
+      <c r="J10" s="52"/>
       <c r="K10" s="17"/>
       <c r="L10" s="9" t="s">
         <v>25</v>
@@ -1072,21 +1077,21 @@
       <c r="O10" s="17"/>
     </row>
     <row r="11" spans="1:15" ht="7.5" customHeight="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
     </row>
     <row r="12" spans="1:15" ht="33" customHeight="1">
       <c r="A12" s="11" t="s">
@@ -1110,18 +1115,18 @@
       <c r="G12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="40"/>
+      <c r="I12" s="49"/>
       <c r="J12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="47" t="s">
+      <c r="K12" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
       <c r="N12" s="13" t="s">
         <v>20</v>
       </c>
@@ -1137,12 +1142,12 @@
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="38"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
       <c r="N13" s="21"/>
       <c r="O13" s="19"/>
     </row>
@@ -1154,12 +1159,12 @@
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="38"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
       <c r="N14" s="21"/>
       <c r="O14" s="19"/>
     </row>
@@ -1171,12 +1176,12 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
       <c r="N15" s="21"/>
       <c r="O15" s="19"/>
     </row>
@@ -1188,12 +1193,12 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
       <c r="N16" s="21"/>
       <c r="O16" s="19"/>
     </row>
@@ -1205,12 +1210,12 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="21"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
       <c r="N17" s="21"/>
       <c r="O17" s="19"/>
     </row>
@@ -1222,12 +1227,12 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="20"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
       <c r="N18" s="21"/>
       <c r="O18" s="19"/>
     </row>
@@ -1239,12 +1244,12 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
       <c r="J19" s="20"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
       <c r="N19" s="21"/>
       <c r="O19" s="19"/>
     </row>
@@ -1256,12 +1261,12 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
       <c r="J20" s="20"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
       <c r="N20" s="21"/>
       <c r="O20" s="19"/>
     </row>
@@ -1273,12 +1278,12 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
       <c r="J21" s="20"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
       <c r="N21" s="21"/>
       <c r="O21" s="19"/>
     </row>
@@ -1290,12 +1295,12 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
       <c r="J22" s="20"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
       <c r="N22" s="21"/>
       <c r="O22" s="19"/>
     </row>
@@ -1307,12 +1312,12 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
       <c r="J23" s="20"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
       <c r="N23" s="21"/>
       <c r="O23" s="19"/>
     </row>
@@ -1324,12 +1329,12 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
       <c r="J24" s="20"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
       <c r="N24" s="21"/>
       <c r="O24" s="22"/>
     </row>
@@ -1341,12 +1346,12 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
       <c r="J25" s="20"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
       <c r="N25" s="21"/>
       <c r="O25" s="23"/>
     </row>
@@ -1358,12 +1363,12 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
       <c r="J26" s="20"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
       <c r="N26" s="21"/>
       <c r="O26" s="22"/>
     </row>
@@ -1379,12 +1384,12 @@
       <c r="I27" s="25"/>
       <c r="J27" s="24"/>
       <c r="K27" s="26"/>
-      <c r="L27" s="43" t="s">
+      <c r="L27" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="43"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="28"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="40"/>
     </row>
     <row r="28" spans="1:15" ht="6.95" customHeight="1">
       <c r="A28" s="25"/>
@@ -1398,35 +1403,33 @@
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="26"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="28"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="40"/>
     </row>
     <row r="29" spans="1:15" ht="8.1" customHeight="1">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
       <c r="H29" s="2"/>
-      <c r="O29" s="59"/>
     </row>
     <row r="30" spans="1:15" ht="24" customHeight="1">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="O30" s="59"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
     </row>
     <row r="31" spans="1:15" ht="12.95" customHeight="1">
       <c r="A31" s="35" t="s">
@@ -1449,11 +1452,11 @@
       <c r="O31" s="27"/>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1">
-      <c r="M32" s="34" t="s">
+      <c r="M32" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="3"/>
@@ -1481,20 +1484,33 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L27:N28"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="K20:M20"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="K22:M22"/>
@@ -1511,35 +1527,22 @@
     <mergeCell ref="J3:O3"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="K15:M15"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L27:N28"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="L6:M6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="I30:K30"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.27559055118110237" top="1.0236220472440944" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\www\Servicio\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9090EFD4-9A69-47EA-8CA5-D55D79E5571F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81FF848-D5EA-4810-BCDE-510F2589C5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,6 +451,72 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -466,83 +532,17 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -857,7 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="L27" sqref="L27:N28"/>
     </sheetView>
   </sheetViews>
@@ -901,12 +901,12 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3"/>
@@ -918,14 +918,14 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" ht="5.25" customHeight="1">
       <c r="A4" s="3"/>
@@ -945,58 +945,58 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="15.75">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="52" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="52"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="17"/>
-      <c r="L6" s="53" t="s">
+      <c r="L6" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
@@ -1004,29 +1004,29 @@
       <c r="M7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="6" t="s">
@@ -1044,28 +1044,28 @@
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="52" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="52"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="17"/>
       <c r="L10" s="9" t="s">
         <v>25</v>
@@ -1077,21 +1077,21 @@
       <c r="O10" s="17"/>
     </row>
     <row r="11" spans="1:15" ht="7.5" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
     </row>
     <row r="12" spans="1:15" ht="33" customHeight="1">
       <c r="A12" s="11" t="s">
@@ -1115,18 +1115,18 @@
       <c r="G12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="49"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="K12" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
       <c r="N12" s="13" t="s">
         <v>20</v>
       </c>
@@ -1142,12 +1142,12 @@
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="37"/>
       <c r="N13" s="21"/>
       <c r="O13" s="19"/>
     </row>
@@ -1159,12 +1159,12 @@
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="20"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="37"/>
       <c r="N14" s="21"/>
       <c r="O14" s="19"/>
     </row>
@@ -1176,12 +1176,12 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
       <c r="N15" s="21"/>
       <c r="O15" s="19"/>
     </row>
@@ -1193,12 +1193,12 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
       <c r="N16" s="21"/>
       <c r="O16" s="19"/>
     </row>
@@ -1210,12 +1210,12 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="21"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
       <c r="N17" s="21"/>
       <c r="O17" s="19"/>
     </row>
@@ -1227,12 +1227,12 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="20"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
       <c r="N18" s="21"/>
       <c r="O18" s="19"/>
     </row>
@@ -1244,12 +1244,12 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="20"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
       <c r="N19" s="21"/>
       <c r="O19" s="19"/>
     </row>
@@ -1261,12 +1261,12 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="20"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
       <c r="N20" s="21"/>
       <c r="O20" s="19"/>
     </row>
@@ -1278,12 +1278,12 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="20"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
       <c r="N21" s="21"/>
       <c r="O21" s="19"/>
     </row>
@@ -1295,12 +1295,12 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
       <c r="J22" s="20"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
       <c r="N22" s="21"/>
       <c r="O22" s="19"/>
     </row>
@@ -1312,12 +1312,12 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
       <c r="J23" s="20"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
       <c r="N23" s="21"/>
       <c r="O23" s="19"/>
     </row>
@@ -1329,12 +1329,12 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="20"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
       <c r="N24" s="21"/>
       <c r="O24" s="22"/>
     </row>
@@ -1346,12 +1346,12 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
       <c r="J25" s="20"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
       <c r="N25" s="21"/>
       <c r="O25" s="23"/>
     </row>
@@ -1363,12 +1363,12 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="20"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
       <c r="N26" s="21"/>
       <c r="O26" s="22"/>
     </row>
@@ -1384,12 +1384,12 @@
       <c r="I27" s="25"/>
       <c r="J27" s="24"/>
       <c r="K27" s="26"/>
-      <c r="L27" s="57" t="s">
+      <c r="L27" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="57"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="40"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="32"/>
     </row>
     <row r="28" spans="1:15" ht="6.95" customHeight="1">
       <c r="A28" s="25"/>
@@ -1403,60 +1403,60 @@
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="26"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="40"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="32"/>
     </row>
     <row r="29" spans="1:15" ht="8.1" customHeight="1">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:15" ht="24" customHeight="1">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
     </row>
     <row r="31" spans="1:15" ht="12.95" customHeight="1">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="I31" s="35" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="I31" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
       <c r="L31" s="1"/>
       <c r="M31" s="27"/>
       <c r="N31" s="27"/>
       <c r="O31" s="27"/>
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1">
-      <c r="M32" s="54" t="s">
+      <c r="M32" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="3"/>
@@ -1483,7 +1483,51 @@
       <c r="K34" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="3WRyRSyCv57OUjReEa0uw+SS3xCV0R1VBm09zxHaBokz6cRUzrpktGMWa6htWNaICnk22Hrc4rQGb8EYVXh/pA==" saltValue="IBA+8YVXCvjAPu6IUR5k4g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="59">
+    <mergeCell ref="A5:O5"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="L27:N28"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="K20:M20"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="I30:K30"/>
@@ -1500,49 +1544,6 @@
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="K13:M13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="L27:N28"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J3:O3"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.27559055118110237" top="1.0236220472440944" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
